--- a/problemSolving.xlsx
+++ b/problemSolving.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhishek.kumar2\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhishek.kumar2\Documents\interview\Java8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD855AA0-CB8B-428C-B272-BD82C3F11AF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8468D91-8756-44CC-BA8A-A94995FCEA1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{DE23DF0C-5579-47AE-B19D-8C9B23F3053B}"/>
   </bookViews>
   <sheets>
     <sheet name="LinkedList" sheetId="1" r:id="rId1"/>
+    <sheet name="String" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Remove Nth Node From End of List</t>
   </si>
@@ -44,6 +45,17 @@
     <t>Need to use slow pointer and fast pointer , and the space between slow point and fast pointer will be nth value
 Then move both slow and fast prt till fast.next is not null.
 Update slow ptr.next to slow.next.next then return slow.next</t>
+  </si>
+  <si>
+    <t>Maximum Number of Words Found in Sentences</t>
+  </si>
+  <si>
+    <t>Given list of sentances ,for each list split the sentances by space and get word array, make this word array length as max and update the max varaible if word if found greater val</t>
+  </si>
+  <si>
+    <t>String word[] = sentences[i].split(" ");
+if(word.length &gt; minLen)
+minLen = word.length</t>
   </si>
 </sst>
 </file>
@@ -59,7 +71,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -69,6 +81,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -85,12 +103,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -408,7 +430,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -421,11 +443,42 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36F7E52F-D3B2-422C-8A8F-4C0B9C2FAE13}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="42" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="150" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>